--- a/ESG Dashboard/ESG_Dashboard.xlsx
+++ b/ESG Dashboard/ESG_Dashboard.xlsx
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B8" s="8" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="B9" s="8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="B10" s="8" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="D10" s="10" t="inlineStr">
         <is>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="B11" s="8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C11" s="9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="10" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="B6" s="10" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="B8" s="16" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B13" s="17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C13" s="15">
         <f>B13*IMPACT_CONFIG!B8</f>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B14" s="17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C14" s="15">
         <f>B14*IMPACT_CONFIG!B9</f>
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="B15" s="21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C15" s="15">
         <f>$B$8*B15*IMPACT_CONFIG!B10</f>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="B16" s="17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C16" s="15">
         <f>B16*IMPACT_CONFIG!B11</f>

--- a/ESG Dashboard/ESG_Dashboard.xlsx
+++ b/ESG Dashboard/ESG_Dashboard.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="IMPACT_CONFIG" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="STRATEGY_SELECTOR" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="UPLOAD_READY_ESG" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,7 +24,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -58,22 +57,6 @@
     </font>
     <font>
       <b val="1"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00006400"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFC000"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="007030A0"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="0070AD47"/>
     </font>
   </fonts>
   <fills count="12">
@@ -162,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -190,26 +173,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="6" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="0000B050"/>
-          <bgColor rgb="0000B050"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="1"/>
+        <color rgb="00C00000"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -282,6 +256,162 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Abatement Cost Curve (Cost vs Tax)</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Cost Per Ton</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'STRATEGY_SELECTOR'!$A$13:$A$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'STRATEGY_SELECTOR'!$H$13:$H$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Tax Rate Threshold</v>
+          </tx>
+          <spPr>
+            <a:ln w="20000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'STRATEGY_SELECTOR'!$I$13:$I$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>$ Cost / Ton Avg</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -763,7 +893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,12 +901,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
   </cols>
@@ -922,6 +1052,10 @@
         <f>IF(D13&gt;0,C13/D13,0)</f>
         <v/>
       </c>
+      <c r="I13">
+        <f>IMPACT_CONFIG!$B$4</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
@@ -956,6 +1090,10 @@
         <f>IF(D14&gt;0,C14/D14,0)</f>
         <v/>
       </c>
+      <c r="I14">
+        <f>IMPACT_CONFIG!$B$4</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="12" t="inlineStr">
@@ -991,6 +1129,10 @@
         <f>IF(D15&gt;0,C15/D15,0)</f>
         <v/>
       </c>
+      <c r="I15">
+        <f>IMPACT_CONFIG!$B$4</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="inlineStr">
@@ -1026,6 +1168,10 @@
         <f>IF(D16&gt;0,C16/D16,0)</f>
         <v/>
       </c>
+      <c r="I16">
+        <f>IMPACT_CONFIG!$B$4</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -1057,239 +1203,51 @@
         </is>
       </c>
       <c r="B21" s="24">
-        <f>C13+C14</f>
+        <f>SUM(C13:C16)</f>
         <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Total Annual Operating Cost</t>
-        </is>
-      </c>
-      <c r="B22" s="24">
-        <f>C15+C16</f>
+          <t>New Tax Bill</t>
+        </is>
+      </c>
+      <c r="B22" s="20">
+        <f>MAX(0,(B6-B20)*IMPACT_CONFIG!B4)</f>
         <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Annual Tax Savings</t>
-        </is>
-      </c>
-      <c r="B23" s="24">
-        <f>SUM(E13:E16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Remaining Emissions</t>
-        </is>
-      </c>
-      <c r="B24" s="25">
-        <f>MAX(0,B6-B20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Remaining Tax Bill</t>
-        </is>
-      </c>
-      <c r="B25" s="24">
-        <f>B24*IMPACT_CONFIG!$B$4</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="26" t="inlineStr">
-        <is>
-          <t>CHEAPEST $/TON OPTION:</t>
-        </is>
-      </c>
-      <c r="B27" s="27">
-        <f>INDEX(A13:A16,MATCH(MIN(H13:H16),H13:H16,0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>DECISION MATRIX:</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="28" t="inlineStr">
-        <is>
-          <t>If Solar Payback &lt; 3 years: INVEST IN SOLAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="29" t="inlineStr">
-        <is>
-          <t>If Cash is Limited: BUY CREDITS (quick fix)</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="30" t="inlineStr">
-        <is>
-          <t>For PR/Long-term: PLANT TREES</t>
-        </is>
+          <t>Annual Savings</t>
+        </is>
+      </c>
+      <c r="B23" s="25">
+        <f>B7-B22</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H13:H16">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
-      <formula>MIN($H$13:$H$16)</formula>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="0063BE7B"/>
+        <color rgb="00FFEB84"/>
+        <color rgb="00F8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G16">
+    <cfRule type="expression" priority="2" dxfId="0">
+      <formula>AND(ISNUMBER(G13),G13&gt;5)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ESG DECISIONS - ExSim Upload Format</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Copy these values to ExSim ESG upload.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>ESG Investments</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="31" t="inlineStr">
-        <is>
-          <t>Initiative</t>
-        </is>
-      </c>
-      <c r="B5" s="31" t="inlineStr">
-        <is>
-          <t>Quantity/Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>Solar PV Panels</t>
-        </is>
-      </c>
-      <c r="B6" s="22">
-        <f>STRATEGY_SELECTOR!B13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>Trees Planted</t>
-        </is>
-      </c>
-      <c r="B7" s="22">
-        <f>STRATEGY_SELECTOR!B14</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="inlineStr">
-        <is>
-          <t>Green Electricity</t>
-        </is>
-      </c>
-      <c r="B8" s="32">
-        <f>STRATEGY_SELECTOR!B15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="13" t="inlineStr">
-        <is>
-          <t>CO2 Credits</t>
-        </is>
-      </c>
-      <c r="B9" s="22">
-        <f>STRATEGY_SELECTOR!B16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Summary</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Total CO2 Reduced (Tons)</t>
-        </is>
-      </c>
-      <c r="B13" s="22">
-        <f>STRATEGY_SELECTOR!B20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Total Investment</t>
-        </is>
-      </c>
-      <c r="B14" s="15">
-        <f>STRATEGY_SELECTOR!B21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Annual OpEx</t>
-        </is>
-      </c>
-      <c r="B15" s="15">
-        <f>STRATEGY_SELECTOR!B22</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ESG Dashboard/ESG_Dashboard.xlsx
+++ b/ESG Dashboard/ESG_Dashboard.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="IMPACT_CONFIG" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="STRATEGY_SELECTOR" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="UPLOAD_READY_ESG" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,14 +18,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="$#,##0"/>
     <numFmt numFmtId="165" formatCode="$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0x"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -57,6 +59,10 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="12">
@@ -145,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -174,16 +180,39 @@
     <xf numFmtId="167" fontId="6" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
       <font>
         <b val="1"/>
         <color rgb="00C00000"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00C6EFCE"/>
+          <bgColor rgb="00C6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFC7CE"/>
+          <bgColor rgb="00FFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -893,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1229,6 +1258,88 @@
         <v/>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>SECTION D: STRATEGY ALIGNMENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="26" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="B26" s="26" t="inlineStr">
+        <is>
+          <t>Goal</t>
+        </is>
+      </c>
+      <c r="C26" s="26" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="D26" s="26" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="27" t="inlineStr">
+        <is>
+          <t>Carbon Neutral Year</t>
+        </is>
+      </c>
+      <c r="B27" s="27" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C27" s="17" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="D27" s="27">
+        <f>IF(C27="TBD", "PENDING", IF(C27&lt;=B27, "ON TRACK", "BEHIND"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="27" t="inlineStr">
+        <is>
+          <t>Product Recyclability %</t>
+        </is>
+      </c>
+      <c r="B28" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="27">
+        <f>IF(C28&gt;=B28, "COMPLIANT", "GAP: "&amp;TEXT(B28-C28,"0%"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="27" t="inlineStr">
+        <is>
+          <t>Fair Wage (vs Market)</t>
+        </is>
+      </c>
+      <c r="B29" s="29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C29" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="27">
+        <f>IF(C29&gt;=B29, "COMPLIANT", "RAISE WAGES")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="H13:H16">
     <cfRule type="colorScale" priority="1">
@@ -1247,7 +1358,167 @@
       <formula>AND(ISNUMBER(G13),G13&gt;5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="expression" priority="3" dxfId="1">
+      <formula>OR(D27="ON TRACK", D27="COMPLIANT")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4" dxfId="2">
+      <formula>OR(LEFT(D27,3)="GAP", D27="BEHIND", D27="RAISE WAGES")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="31" t="inlineStr">
+        <is>
+          <t>UPLOAD READY DATA - DO NOT EDIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="32" t="inlineStr">
+        <is>
+          <t>Initiative</t>
+        </is>
+      </c>
+      <c r="B5" s="32" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="C5" s="32" t="inlineStr">
+        <is>
+          <t>Investment</t>
+        </is>
+      </c>
+      <c r="D5" s="32" t="inlineStr">
+        <is>
+          <t>CO2 Reduction</t>
+        </is>
+      </c>
+      <c r="E5" s="32" t="inlineStr">
+        <is>
+          <t>Tax Savings</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Solar PV Panels</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>STRATEGY_SELECTOR!B13</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>STRATEGY_SELECTOR!C13</f>
+        <v/>
+      </c>
+      <c r="D6">
+        <f>STRATEGY_SELECTOR!D13</f>
+        <v/>
+      </c>
+      <c r="E6">
+        <f>STRATEGY_SELECTOR!E13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Trees Planted</t>
+        </is>
+      </c>
+      <c r="B7">
+        <f>STRATEGY_SELECTOR!B14</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>STRATEGY_SELECTOR!C14</f>
+        <v/>
+      </c>
+      <c r="D7">
+        <f>STRATEGY_SELECTOR!D14</f>
+        <v/>
+      </c>
+      <c r="E7">
+        <f>STRATEGY_SELECTOR!E14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Green Electricity</t>
+        </is>
+      </c>
+      <c r="B8">
+        <f>STRATEGY_SELECTOR!B15</f>
+        <v/>
+      </c>
+      <c r="C8">
+        <f>STRATEGY_SELECTOR!C15</f>
+        <v/>
+      </c>
+      <c r="D8">
+        <f>STRATEGY_SELECTOR!D15</f>
+        <v/>
+      </c>
+      <c r="E8">
+        <f>STRATEGY_SELECTOR!E15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CO2 Credits</t>
+        </is>
+      </c>
+      <c r="B9">
+        <f>STRATEGY_SELECTOR!B16</f>
+        <v/>
+      </c>
+      <c r="C9">
+        <f>STRATEGY_SELECTOR!C16</f>
+        <v/>
+      </c>
+      <c r="D9">
+        <f>STRATEGY_SELECTOR!D16</f>
+        <v/>
+      </c>
+      <c r="E9">
+        <f>STRATEGY_SELECTOR!E16</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>